--- a/Chickasaw_Nation_Medical_Center_processing_report_08-01-2025_08-07-2025.xlsx
+++ b/Chickasaw_Nation_Medical_Center_processing_report_08-01-2025_08-07-2025.xlsx
@@ -632,7 +632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,6 +681,11 @@
           <t>reason</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PDF_Drive_Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -711,6 +716,11 @@
           <t>Patient upload failed: MRN invalid (must be &gt;3 chars, alphanumeric with at least one digit); Order upload skipped</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1QUBpLoRf5i_V5dRClodBaGynKwgz_hNs/view</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -745,6 +755,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/10Lb2iIfny7dAErg-J-Rs_maKqWfltg7M/view</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -779,6 +794,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1lfQB4Vac4A1N9BaCmH_p8BVFnc--YX4C/view</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -813,6 +833,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Pb_0ihjnKrmmf54kkyowwwZNjyFd-BjM/view</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -847,6 +872,11 @@
           <t>Patient upload skipped; Order upload failed: {"message":"Duplicate order found","orderId":"ORD40213"}</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1fZZMfbQ3sIEjmvUSjwCEaeuBvsxYjGk-/view</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -881,6 +911,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1inbhMofpg1iwRw_NVTkYubf4QP8mRrjJ/view</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -915,6 +950,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1PpBUYFUdlfyX533izGe_Yv1JILFQpdLI/view</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -949,6 +989,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/15zeKju6iqU6V1HoUFvlI-4FlJ3TNNI9J/view</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -983,6 +1028,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/17I-DCcgV5eUCAdYnXHMorsotvk71AIkQ/view</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1011,6 +1061,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1DRCPA4GJING0X7AtKaU2mRiybbnI7Q4M/view</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1041,6 +1096,11 @@
           <t>Patient upload failed: MRN invalid (must be &gt;3 chars, alphanumeric with at least one digit); Order upload skipped</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/11IkOuQKTYzTXht9PC_3DZ9bDSRNJtHFk/view</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1069,6 +1129,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1MAl-rragu79qbe_LMF60kwt-S-xWLEZi/view</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1097,6 +1162,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1raojf_71zA0KSVx1elJunhcMzbaQObfr/view</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1123,6 +1193,11 @@
       <c r="H15" t="inlineStr">
         <is>
           <t>Patient upload failed: nan; Order upload skipped</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1J-HdpY4Ak-I3BHH_iX_OIcNB2kwFmOCJ/view</t>
         </is>
       </c>
     </row>
@@ -1149,6 +1224,11 @@
           <t>Patient upload failed: MRN invalid (must be &gt;3 chars, alphanumeric with at least one digit); Order upload skipped</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1is_r3mDRnyqPWUVqlPchSc-azu4s6V4g/view</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1177,6 +1257,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1XL1Jn9tkvszRL0-9PuAwyzYAGqNqj6Fa/view</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1203,6 +1288,11 @@
       <c r="H18" t="inlineStr">
         <is>
           <t>Patient upload failed: nan; Order upload skipped</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1z2z29DG4upElRbDLApndG3qadADkxI7U/view</t>
         </is>
       </c>
     </row>
@@ -1229,6 +1319,11 @@
           <t>Patient upload failed: MRN invalid (must be &gt;3 chars, alphanumeric with at least one digit); Order upload skipped</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13F36gBX40YHKgU-D8R9sEVUlva0aX6W3/view</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1253,6 +1348,11 @@
           <t>Patient upload failed: MRN invalid (must be &gt;3 chars, alphanumeric with at least one digit); Order upload skipped</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1mBYHK9vedTBhxPc_6BNcFq7YYuMnMkHU/view</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1281,6 +1381,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1bErLPh3WzBksaNflDcA1WxnGKhiIkhLE/view</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1309,6 +1414,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/17GYfhJcL30Dnrv_g_51-3-AFQS5YgAAp/view</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1337,6 +1447,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1qzVPHXLNf9d-Tpb7pW14BiYAhQ139rPC/view</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1365,6 +1480,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1nktaatRegcO8sCvqhujGtSysGG2Oqs4H/view</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1393,6 +1513,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1hPICDmkhnUe1mLEGZiP8L9uWPuTldRiC/view</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1421,6 +1546,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Fb7Scve4KvBgjo5Fsm9VYa7TPxU96FPj/view</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1449,6 +1579,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ewHrsPelVXQB_PNBJpV_besB2_-RvTxN/view</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1477,6 +1612,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1OCKzWdCwSlVTkwn6D0hgqYZXR30AEJM_/view</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1505,6 +1645,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1gIUx0rCWusk0oX-PGpJk-mmavQ4JOwQe/view</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1533,6 +1678,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/16WU8mY3zu2rMqMvBL1Bedi3k_br93xhG/view</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1561,6 +1711,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1SiK-BsMW3p0KJo6pgPY4iXrToeZZqYZH/view</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1589,6 +1744,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1FnV4VuVF1vIovDB5IK9iSnMKXC3g4Hh2/view</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1617,6 +1777,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Dy3Ynqry6yyp718OH-xQQzW5BZf6ZqAq/view</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1645,6 +1810,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1bkrJqdtqEnZgowZEzr7YM9aQJRSp6NIq/view</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1673,6 +1843,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1t97_je13EANSIwjhy0jK-wZnqob-V9cR/view</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1701,6 +1876,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Hcx_352_iZz1mZmoolVsZDocO1qk8oR_/view</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1729,6 +1909,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1YB0WkLQ3Wiw4F37NYLAlFBw1HuogV4GN/view</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1757,6 +1942,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/13BpvO5FX-OYBw1DM7GQloceqR74V7RHg/view</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1785,6 +1975,11 @@
           <t>Patient upload failed: nan; Order upload skipped</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1P8Ovv3_Qg1XSFFt5T-5eHUQ1jUmi-Vrw/view</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1811,6 +2006,11 @@
       <c r="H40" t="inlineStr">
         <is>
           <t>Patient upload failed: nan; Order upload skipped</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1y0X-lFxlIesDuayf3Czqzfb9UJ635g2k/view</t>
         </is>
       </c>
     </row>
